--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavlevz\Classes\Business Architecture - Merns\Projects\Rekall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madandj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4812"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Use JavaScript to import to web page.</t>
-  </si>
-  <si>
-    <t>As a user I want to choose the location.  As a user I want to include real people and celebrities.  As a user I want to roleplay.  As a user I want to be able to get synchronized implants with friends.</t>
   </si>
   <si>
     <t>Story_Nbr</t>
@@ -549,11 +546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="237208056"/>
-        <c:axId val="237209624"/>
+        <c:axId val="381666624"/>
+        <c:axId val="381667016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237208056"/>
+        <c:axId val="381666624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237209624"/>
+        <c:crossAx val="381667016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -571,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237209624"/>
+        <c:axId val="381667016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237208056"/>
+        <c:crossAx val="381666624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -982,7 +979,7 @@
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -1074,7 +1071,7 @@
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
@@ -1271,30 +1268,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D2" s="12">
         <v>3</v>
@@ -1305,13 +1302,13 @@
     </row>
     <row r="3" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="12">
         <v>5</v>
@@ -1322,13 +1319,13 @@
     </row>
     <row r="4" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="D4" s="12">
         <v>2</v>
@@ -1339,13 +1336,13 @@
     </row>
     <row r="5" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="12">
         <v>8</v>
@@ -1356,13 +1353,13 @@
     </row>
     <row r="6" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="D6" s="12">
         <v>144</v>
@@ -1373,13 +1370,13 @@
     </row>
     <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="12">
         <v>34</v>
@@ -1390,13 +1387,13 @@
     </row>
     <row r="8" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="D8" s="12">
         <v>21</v>
@@ -1407,13 +1404,13 @@
     </row>
     <row r="9" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="12">
         <v>13</v>
@@ -1424,13 +1421,13 @@
     </row>
     <row r="10" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="D10" s="12">
         <v>21</v>
@@ -1441,13 +1438,13 @@
     </row>
     <row r="11" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D11" s="12">
         <v>8</v>
@@ -1458,13 +1455,13 @@
     </row>
     <row r="12" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="D12" s="12">
         <v>21</v>
@@ -1475,13 +1472,13 @@
     </row>
     <row r="13" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="12">
         <v>2</v>
@@ -1492,13 +1489,13 @@
     </row>
     <row r="14" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="D14" s="14">
         <v>55</v>
@@ -1509,7 +1506,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1514,19 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -1691,18 +1700,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -1750,21 +1747,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1788,9 +1773,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madandj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madandj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -546,11 +546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="381666624"/>
-        <c:axId val="381667016"/>
+        <c:axId val="384460400"/>
+        <c:axId val="384460792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381666624"/>
+        <c:axId val="384460400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381667016"/>
+        <c:crossAx val="384460792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381667016"/>
+        <c:axId val="384460792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381666624"/>
+        <c:crossAx val="384460400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1514,19 +1514,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -1700,6 +1688,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -1747,9 +1747,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1773,21 +1785,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Sprint-Backlog-Template.xlsx
+++ b/Sprint-Backlog-Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madandj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madandj\Desktop\rekall-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -39,24 +39,9 @@
     <t>Original Estimate</t>
   </si>
   <si>
-    <t>Day 1</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Andrew</t>
   </si>
   <si>
@@ -79,9 +64,6 @@
   </si>
   <si>
     <t>Create EgoTrip description.</t>
-  </si>
-  <si>
-    <t>Create EgoTrip customization options.</t>
   </si>
   <si>
     <t>Adam</t>
@@ -134,12 +116,6 @@
     <t>US-03</t>
   </si>
   <si>
-    <t>As a customer I want to schedule implants online.</t>
-  </si>
-  <si>
-    <t>1. website and mobile app will have interactive calendar to schedule appointments.</t>
-  </si>
-  <si>
     <t>US-04</t>
   </si>
   <si>
@@ -159,9 +135,6 @@
 2.  Memory scans for personality derivatve </t>
   </si>
   <si>
-    <t xml:space="preserve">US-06 </t>
-  </si>
-  <si>
     <t>As a customer I want to role play a character of my choice in my implant</t>
   </si>
   <si>
@@ -222,9 +195,6 @@
     <t>1. Strict doctor patient confidentiality clause.</t>
   </si>
   <si>
-    <t>US-13</t>
-  </si>
-  <si>
     <t>As a customer I want celebrities in my implants.</t>
   </si>
   <si>
@@ -234,7 +204,34 @@
     <t>Fibonacci Series: 1,2,3,5,8,13,21,34,55,89,144,233</t>
   </si>
   <si>
-    <t>As a user I want to see prices.  As a user I want insurace that I won't be lobotomized.  As a user I want absolute confidentiality.</t>
+    <t>Day 1-2</t>
+  </si>
+  <si>
+    <t>Day 3-4</t>
+  </si>
+  <si>
+    <t>Day 5-6</t>
+  </si>
+  <si>
+    <t>Day 7-8</t>
+  </si>
+  <si>
+    <t>Create base implant packages with prices for comparison</t>
+  </si>
+  <si>
+    <t>Added to Sprint Backlog</t>
+  </si>
+  <si>
+    <t>As a user I want insurace that I won't be lobotomized.  As a user I want absolute confidentiality.</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>US-06</t>
+  </si>
+  <si>
+    <t>Dan</t>
   </si>
 </sst>
 </file>
@@ -493,16 +490,16 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Day 1</c:v>
+                  <c:v>Day 1-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Day 2</c:v>
+                  <c:v>Day 3-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Day 3</c:v>
+                  <c:v>Day 5-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Day 4</c:v>
+                  <c:v>Day 7-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sprint Review</c:v>
@@ -546,11 +543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="384460400"/>
-        <c:axId val="384460792"/>
+        <c:axId val="411588816"/>
+        <c:axId val="411589208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="384460400"/>
+        <c:axId val="411588816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384460792"/>
+        <c:crossAx val="411589208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -568,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384460792"/>
+        <c:axId val="411589208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384460400"/>
+        <c:crossAx val="411588816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -931,7 +928,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -956,39 +953,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
@@ -1012,13 +1009,13 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -1042,13 +1039,13 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>7</v>
@@ -1071,16 +1068,16 @@
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -1101,16 +1098,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1134,13 +1131,13 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
         <v>7</v>
@@ -1164,13 +1161,13 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
@@ -1198,7 +1195,7 @@
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ref="E10:J10" si="0">SUM(E2:E8)</f>
@@ -1252,261 +1249,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="1" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="66.21875" customWidth="1"/>
+    <col min="4" max="4" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E2" s="12">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="E3" s="12">
+        <v>5</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="12">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12">
+        <v>144</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="12">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12">
+        <v>13</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="12">
+        <v>21</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12">
         <v>3</v>
       </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="12">
-        <v>5</v>
-      </c>
-      <c r="E3" s="12">
+    </row>
+    <row r="11" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="12">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="F12" s="12">
         <v>2</v>
       </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="12">
-        <v>8</v>
-      </c>
-      <c r="E5" s="12">
+    </row>
+    <row r="13" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="14">
+        <v>55</v>
+      </c>
+      <c r="F13" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12">
-        <v>144</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="12">
-        <v>34</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12">
-        <v>21</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="12">
-        <v>13</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="12">
-        <v>21</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="D11" s="12">
-        <v>8</v>
-      </c>
-      <c r="E11" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="12">
-        <v>21</v>
-      </c>
-      <c r="E12" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="14">
-        <v>55</v>
-      </c>
-      <c r="E14" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1513,19 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -1688,18 +1699,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -1747,21 +1746,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1785,9 +1772,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
